--- a/biology/Botanique/Tillandsia_brevior/Tillandsia_brevior.xlsx
+++ b/biology/Botanique/Tillandsia_brevior/Tillandsia_brevior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia acuminata est une espèce de plante de la famille des Bromeliaceae, endémique de Colombie. L'épithète brevior, signifiant « plus courte », est une référence aux bractées florales plus courtes que les sépales.
 </t>
@@ -511,13 +523,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia brevior L.B.Sm., in Contr. U.S. Natl. Herb. 29: 436, fig. 42a-c (1951)
-Diagnose originale[1]
+Diagnose originale
 « A T. incurvata Grisebach, cui in habito valde similis, bracteis florigeris carinatis, quam sepalis valde brevioribus differt. »
 Type
-leg. M.B. &amp; R. Foster, n° 132, 1946 ; « vicinity of Santa Marta, Department of Magdalena, Colombia »[1] ; Holotypus GH (Gray Herbarium) (GH 29407)
+leg. M.B. &amp; R. Foster, n° 132, 1946 ; « vicinity of Santa Marta, Department of Magdalena, Colombia » ; Holotypus GH (Gray Herbarium) (GH 29407)
 leg. M.B &amp; R. Foster, n° 132, 1946 ; « Colombia. Magdalena. Vicinity of Santa Marta. » ; (Iso?-)typus (fragm.) US National Herbarium (US 00089135)</t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce est endémique du département de Magdalena en Colombie[1].
-Habitat
-L'espèce se rencontre dans les grands arbres[2] à 1 200 mètres d'altitude[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du département de Magdalena en Colombie.
 </t>
         </is>
       </c>
@@ -577,12 +594,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans les grands arbres à 1 200 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tillandsia_brevior</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_brevior</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia brevior est une plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux et épiphyte[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia brevior est une plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux et épiphyte.
 </t>
         </is>
       </c>
